--- a/resource/resource_data.xlsx
+++ b/resource/resource_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZOOY2ON\Desktop\2023\2023_02\2DGP\2DGP_Project_1vs1soccer\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2279BAC9-D83E-475C-8451-BC67D4E23521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D16A62-BD56-4B8B-9385-B5CB8704A9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{858EAA8E-54A3-4F62-ACC4-208987DD73BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{858EAA8E-54A3-4F62-ACC4-208987DD73BB}"/>
   </bookViews>
   <sheets>
     <sheet name="리소스 제작 리스트" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="139">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임 결과 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 설명 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,6 +470,102 @@
   </si>
   <si>
     <t>Timer_5minute.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen_win_p1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 결과 화면_p1승리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 결과 화면_p2승리</t>
+  </si>
+  <si>
+    <t>Screen_win_p2.png</t>
+  </si>
+  <si>
+    <t>점수용 카드 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수용 카드 1</t>
+  </si>
+  <si>
+    <t>점수용 카드 2</t>
+  </si>
+  <si>
+    <t>점수용 카드 3</t>
+  </si>
+  <si>
+    <t>점수용 카드 4</t>
+  </si>
+  <si>
+    <t>점수용 카드 5</t>
+  </si>
+  <si>
+    <t>점수용 카드 6</t>
+  </si>
+  <si>
+    <t>점수용 카드 7</t>
+  </si>
+  <si>
+    <t>점수용 카드 8</t>
+  </si>
+  <si>
+    <t>점수용 카드 9</t>
+  </si>
+  <si>
+    <t>number_card_0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_card_1.png</t>
+  </si>
+  <si>
+    <t>number_card_2.png</t>
+  </si>
+  <si>
+    <t>number_card_3.png</t>
+  </si>
+  <si>
+    <t>number_card_4.png</t>
+  </si>
+  <si>
+    <t>number_card_5.png</t>
+  </si>
+  <si>
+    <t>number_card_6.png</t>
+  </si>
+  <si>
+    <t>number_card_7.png</t>
+  </si>
+  <si>
+    <t>number_card_8.png</t>
+  </si>
+  <si>
+    <t>number_card_9.png</t>
+  </si>
+  <si>
+    <t>골 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골든 골 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goal_msg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golden_goal_msg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen_how.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1217,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF36E6E-438D-411D-AB8D-360E4A1AB54C}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1253,10 +1345,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1264,10 +1356,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1275,10 +1367,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1286,10 +1378,10 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1297,10 +1389,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1308,10 +1400,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1319,10 +1411,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1330,10 +1422,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1341,10 +1433,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1352,10 +1444,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1363,10 +1455,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1374,10 +1466,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -1385,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -1396,10 +1488,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -1407,10 +1499,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1418,10 +1510,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -1429,10 +1521,10 @@
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -1440,10 +1532,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -1451,10 +1543,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -1462,10 +1554,10 @@
         <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -1473,10 +1565,10 @@
         <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -1484,10 +1576,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -1495,10 +1587,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -1506,10 +1598,10 @@
         <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -1517,10 +1609,10 @@
         <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -1528,10 +1620,10 @@
         <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -1539,10 +1631,10 @@
         <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -1550,10 +1642,10 @@
         <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -1561,10 +1653,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -1572,10 +1664,10 @@
         <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -1583,10 +1675,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -1594,10 +1686,10 @@
         <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -1605,10 +1697,10 @@
         <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -1616,10 +1708,10 @@
         <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -1627,10 +1719,10 @@
         <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -1638,32 +1730,32 @@
         <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -1671,32 +1763,32 @@
         <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -1704,39 +1796,51 @@
         <v>55</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>111</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>71</v>
@@ -1744,13 +1848,156 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
